--- a/bug.xlsx
+++ b/bug.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>摸牌，没有检测到碰杠的牌</t>
     <rPh sb="0" eb="1">
@@ -104,35 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退出游戏没有做</t>
-    <rPh sb="0" eb="1">
-      <t>tui'chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'xi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mei'you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音按钮关闭</t>
-    <rPh sb="0" eb="1">
-      <t>yu'yin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>an'niu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guan'bi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重新开始后牌的个数问题</t>
     <rPh sb="0" eb="1">
       <t>chong'xin</t>
@@ -155,25 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牌结束面板设计问题</t>
-    <rPh sb="0" eb="1">
-      <t>pai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jie'shu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>mian'ban</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待测试</t>
     <rPh sb="0" eb="1">
       <t>dai</t>
@@ -277,16 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wan'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待检测</t>
     <rPh sb="0" eb="1">
       <t>dai</t>
@@ -346,6 +288,94 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手上的杠牌检测</t>
+    <rPh sb="0" eb="1">
+      <t>shou'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang'pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏没有做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音按钮关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌结束面板设计问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前是ok的啊</t>
+    <rPh sb="0" eb="1">
+      <t>yi'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>a</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰了之后摸牌的时候上家的牌没有消失</t>
+    <rPh sb="0" eb="1">
+      <t>peng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>le</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'pai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiao'shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,16 +720,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -707,12 +737,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -721,13 +754,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,10 +771,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,47 +785,74 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/bug.xlsx
+++ b/bug.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>摸牌，没有检测到碰杠的牌</t>
     <rPh sb="0" eb="1">
@@ -323,22 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以前是ok的啊</t>
-    <rPh sb="0" eb="1">
-      <t>yi'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>a</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碰了之后摸牌的时候上家的牌没有消失</t>
     <rPh sb="0" eb="1">
       <t>peng</t>
@@ -375,6 +359,47 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打牌结束的番数计算一下</t>
+    <rPh sb="0" eb="1">
+      <t>da</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai碰杠牌计算一下</t>
+    <rPh sb="2" eb="3">
+      <t>peng'gang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'xia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,6 +820,12 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -815,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,19 +871,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
